--- a/Chuteira Puma.xlsx
+++ b/Chuteira Puma.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de4517f77469d3d4/Documentos/Ciencia dos dados/Projeto1_CD/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="281" documentId="11_57AEF0098EBB9BAC78240056CF99F645E12C405A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{586854E5-E2EF-4730-AEDF-779071C6431E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1877,12 +1883,18 @@
   <si>
     <t>essa chuteira do neymar com a puma nem no escuro dá pra usar q bgl feio</t>
   </si>
+  <si>
+    <t>Relevante</t>
+  </si>
+  <si>
+    <t>Irrelevante</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1899,12 +1911,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1934,22 +1958,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1991,7 +2026,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2023,9 +2058,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,6 +2110,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2232,1514 +2303,1514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:1">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:1">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -3750,1514 +3821,1252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="165.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="D14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>334</v>
+      </c>
+      <c r="D17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>379</v>
+      </c>
+      <c r="D21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D26" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>402</v>
+      </c>
+      <c r="D29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D31" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>398</v>
+      </c>
+      <c r="D34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>364</v>
+      </c>
+      <c r="D37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>404</v>
+      </c>
+      <c r="D38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>399</v>
+      </c>
+      <c r="D39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>357</v>
+      </c>
+      <c r="D43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>390</v>
+      </c>
+      <c r="D44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>408</v>
+      </c>
+      <c r="D45" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>410</v>
+      </c>
+      <c r="D47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>423</v>
+      </c>
+      <c r="D51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>426</v>
+      </c>
+      <c r="D53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>429</v>
+      </c>
+      <c r="D54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>430</v>
+      </c>
+      <c r="D55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>431</v>
+      </c>
+      <c r="D56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>437</v>
+      </c>
+      <c r="D57" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>441</v>
+      </c>
+      <c r="D58" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D60" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>446</v>
+      </c>
+      <c r="D61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>451</v>
+      </c>
+      <c r="D64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>454</v>
+      </c>
+      <c r="D65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>455</v>
+      </c>
+      <c r="D66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>456</v>
+      </c>
+      <c r="D67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>458</v>
+      </c>
+      <c r="D68" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>459</v>
+      </c>
+      <c r="D69" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>460</v>
+      </c>
+      <c r="D70" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>461</v>
+      </c>
+      <c r="D71" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>462</v>
+      </c>
+      <c r="D72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>463</v>
+      </c>
+      <c r="D73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>464</v>
+      </c>
+      <c r="D74" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>468</v>
+      </c>
+      <c r="D75" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>469</v>
+      </c>
+      <c r="D76" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>470</v>
+      </c>
+      <c r="D77" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>471</v>
+      </c>
+      <c r="D78" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>473</v>
+      </c>
+      <c r="D79" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>475</v>
+      </c>
+      <c r="D80" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>483</v>
+      </c>
+      <c r="D81" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>484</v>
+      </c>
+      <c r="D82" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>485</v>
+      </c>
+      <c r="D83" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>487</v>
+      </c>
+      <c r="D84" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>488</v>
+      </c>
+      <c r="D85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>491</v>
+      </c>
+      <c r="D86" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>492</v>
+      </c>
+      <c r="D87" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>498</v>
+      </c>
+      <c r="D90" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>506</v>
+      </c>
+      <c r="D91" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>508</v>
+      </c>
+      <c r="D92" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>510</v>
+      </c>
+      <c r="D94" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>511</v>
+      </c>
+      <c r="D95" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>512</v>
+      </c>
+      <c r="D96" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>516</v>
+      </c>
+      <c r="D97" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>519</v>
+      </c>
+      <c r="D98" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>522</v>
+      </c>
+      <c r="D99" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>523</v>
+      </c>
+      <c r="D100" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>527</v>
+      </c>
+      <c r="D101" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>530</v>
+      </c>
+      <c r="D102" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>531</v>
+      </c>
+      <c r="D103" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>532</v>
+      </c>
+      <c r="D104" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>534</v>
+      </c>
+      <c r="D105" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>535</v>
+      </c>
+      <c r="D106" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>537</v>
+      </c>
+      <c r="D107" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>539</v>
+      </c>
+      <c r="D108" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>540</v>
+      </c>
+      <c r="D109" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>541</v>
+      </c>
+      <c r="D110" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>542</v>
+      </c>
+      <c r="D111" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>599</v>
+      </c>
+      <c r="D112" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>551</v>
+      </c>
+      <c r="D113" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>592</v>
+      </c>
+      <c r="D114" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>571</v>
+      </c>
+      <c r="D115" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>577</v>
+      </c>
+      <c r="D116" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>560</v>
+      </c>
+      <c r="D117" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>598</v>
+      </c>
+      <c r="D118" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>561</v>
+      </c>
+      <c r="D119" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>567</v>
+      </c>
+      <c r="D120" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>573</v>
+      </c>
+      <c r="D121" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>585</v>
+      </c>
+      <c r="D122" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>562</v>
+      </c>
+      <c r="D123" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>563</v>
+      </c>
+      <c r="D124" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>594</v>
+      </c>
+      <c r="D125" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>586</v>
+      </c>
+      <c r="D126" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>600</v>
+      </c>
+      <c r="D127" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>559</v>
+      </c>
+      <c r="D128" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>554</v>
+      </c>
+      <c r="D129" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>552</v>
+      </c>
+      <c r="D130" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>569</v>
+      </c>
+      <c r="D131" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>543</v>
+      </c>
+      <c r="D132" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>564</v>
+      </c>
+      <c r="D133" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>593</v>
+      </c>
+      <c r="D134" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>578</v>
+      </c>
+      <c r="D135" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>558</v>
+      </c>
+      <c r="D136" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>565</v>
+      </c>
+      <c r="D137" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>597</v>
+      </c>
+      <c r="D138" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>579</v>
+      </c>
+      <c r="D139" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>591</v>
+      </c>
+      <c r="D140" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="D141" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
+      <c r="D142" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" t="s">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
-      <c r="A256" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" t="s">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
-      <c r="A267" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" t="s">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
-      <c r="A282" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" t="s">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
-      <c r="A290" t="s">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="4" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" t="s">
-        <v>600</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A125:A182">
+    <sortCondition ref="A125"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Chuteira Puma.xlsx
+++ b/Chuteira Puma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de4517f77469d3d4/Documentos/Ciencia dos dados/Projeto1_CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigomedeiros/Desktop/Projeto1_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_57AEF0098EBB9BAC78240056CF99F645E12C405A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{586854E5-E2EF-4730-AEDF-779071C6431E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF90D0C-306A-5D49-B455-502F8B5CB3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="603">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1911,7 +1911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1926,7 +1926,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1958,20 +1970,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF51422"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1984,7 +2007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2304,1514 +2327,1233 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="184.6640625" customWidth="1"/>
+    <col min="3" max="3" width="179.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C28" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C31" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C32" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C34" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C35" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="C37" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="C38" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C39" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C40" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="C41" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C42" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C43" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="C44" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="C45" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="C46" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="C47" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="C48" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="C49" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="C50" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C51" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="C52" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="C53" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="C54" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="C55" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="C56" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="C57" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="C58" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="C59" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="C60" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="C61" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="C62" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="C63" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="C64" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="C65" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="C66" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="C67" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="C68" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="C69" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="C70" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="C71" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="C72" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="C73" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="C74" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="C75" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="C76" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="C77" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="C78" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="C79" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="C80" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="C81" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="C82" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="C83" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="C84" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="C85" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C120" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="C121" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="C122" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="C123" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+      <c r="C124" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+      <c r="C125" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" s="5" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C131" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C134" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C145" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C146" s="5" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C148" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3824,23 +3566,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="165.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>601</v>
       </c>
@@ -3848,1218 +3590,1218 @@
         <v>602</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="5" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="5" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="5" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104" t="s">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106" t="s">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108" t="s">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="5" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119" t="s">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="5" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120" t="s">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="5" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="5" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123" t="s">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="5" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124" t="s">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="5" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125" t="s">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="5" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126" t="s">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="5" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="5" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="5" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" t="s">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="5" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="5" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131" t="s">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B131" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="5" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132" t="s">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B132" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="5" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133" t="s">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B133" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="5" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134" t="s">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B134" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="5" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B135" t="s">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136" t="s">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B136" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="5" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137" t="s">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B137" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="5" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138" t="s">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="5" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B139" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="5" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="5" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B141" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="5" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="5" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D143" t="s">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D143" s="5" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D144" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="5" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D145" t="s">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D146" t="s">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D146" s="5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D147" t="s">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="5" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D148" t="s">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D148" s="5" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D149" t="s">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="5" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D150" t="s">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D150" s="5" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D151" t="s">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="5" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D152" t="s">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="5" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D153" t="s">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D153" s="5" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D154" t="s">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D154" s="5" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D155" t="s">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D155" s="5" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D156" t="s">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D156" s="5" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D157" t="s">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D157" s="5" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D158" t="s">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D158" s="5" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D159" t="s">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D159" s="5" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D160" t="s">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D160" s="5" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D161" s="4" t="s">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D161" s="6" t="s">
         <v>590</v>
       </c>
     </row>
